--- a/biology/Histoire de la zoologie et de la botanique/Auguste_Eugène_Méquignon/Auguste_Eugène_Méquignon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Auguste_Eugène_Méquignon/Auguste_Eugène_Méquignon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auguste_Eug%C3%A8ne_M%C3%A9quignon</t>
+          <t>Auguste_Eugène_Méquignon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Auguste Eugène Méquignon, né le 21 février 1875 à Paris et mort le 13 août 1958 dans la même ville[1], est un entomologiste français. Il est spécialisé dans les coléoptères, particulièrement les Staphyliniformia et les Cucujoidea.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Auguste Eugène Méquignon, né le 21 février 1875 à Paris et mort le 13 août 1958 dans la même ville, est un entomologiste français. Il est spécialisé dans les coléoptères, particulièrement les Staphyliniformia et les Cucujoidea.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auguste_Eug%C3%A8ne_M%C3%A9quignon</t>
+          <t>Auguste_Eugène_Méquignon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1901, il est membre de la Société entomologique de France et en devient président en 1922[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1901, il est membre de la Société entomologique de France et en devient président en 1922.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Auguste_Eug%C3%A8ne_M%C3%A9quignon</t>
+          <t>Auguste_Eugène_Méquignon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Notes diverses dans le Bulletin de la Société Entomologique de France et Miscellanea Entomologica.
-[1938]  Avec Jean Sainte-Claire Deville Catalogue raisonné des coléoptères de France Société entomologique de France, 1938 - 474 pages.
-[1942]  Voyage de MM. L. Chopard et A. Méquignon aux Açores (août-septembre 1930). XIII. Diagnoses de Coléoptères nouveaux. Bulletin de la Société Entomologique de France, 47: 9–11.
-[1942]  Voyage de MM. L. Chopard et A. Méquignon aux Açores (Août-septembre 1930). XIV. Catalogues des Coléoptères Açoréens. Annales de la Société Entomologique de France, 111: 1–66.
-[1943]  Notes diverses sur des Coléoptères de France. Bulletin de la Société Entomologique de France, 48(11): 159–162.</t>
+  Avec Jean Sainte-Claire Deville Catalogue raisonné des coléoptères de France Société entomologique de France, 1938 - 474 pages.
+  Voyage de MM. L. Chopard et A. Méquignon aux Açores (août-septembre 1930). XIII. Diagnoses de Coléoptères nouveaux. Bulletin de la Société Entomologique de France, 47: 9–11.
+  Voyage de MM. L. Chopard et A. Méquignon aux Açores (Août-septembre 1930). XIV. Catalogues des Coléoptères Açoréens. Annales de la Société Entomologique de France, 111: 1–66.
+  Notes diverses sur des Coléoptères de France. Bulletin de la Société Entomologique de France, 48(11): 159–162.</t>
         </is>
       </c>
     </row>
